--- a/TP2/tabla_adulto_equiv.xlsx
+++ b/TP2/tabla_adulto_equiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Documents\UdeSA\Big_data\TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupih\Desktop\EPH_usu_1_Trim_2019_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781BD50-6DBC-445F-A5E6-4FB4F9511921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E962F3C-29E4-4745-A82B-33515FD15C1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de adulo equivalente" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Edad</t>
   </si>
@@ -106,19 +106,83 @@
   </si>
   <si>
     <t>más de 75 años</t>
+  </si>
+  <si>
+    <t>Ejemplos de determinación de las unidades consumidoras (adultos equivalentes)</t>
+  </si>
+  <si>
+    <t>Se presentan a continuación tres ejemplos de cómo se determina la cantidad de unidades consumidoras (adultos equivalentes) para diferentes hogares.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fuente: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>INDEC.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tabla de equivalencias de necesidades energéticas. Unidades de adulto equivalente, según sexo y edad</t>
+  </si>
+  <si>
+    <t>Hogar 1: de tres integrantes, compuesto por una mujer de 35 años, su hijo de 18 años y su madre de 61 años. En total, el hogar suma  2,46 adultos equivalentes.</t>
+  </si>
+  <si>
+    <t>Hogar 2: de cuatro integrantes, compuesto por un varón de 35 años, una mujer de 31 años, un hijo de 6 años y una hija de 8 años. En total, el hogar suma 3,09 adultos equivalentes</t>
+  </si>
+  <si>
+    <t>Hogar 3: de cinco integrantes, constituido por una pareja de un varón y una mujer, ambos de 30 años, y tres hijos de 5, 3 y 1 año. En total, el hogar suma 3,25 adultos equivalentes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="4"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -132,6 +196,32 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,34 +273,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,9 +339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,9 +379,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +414,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +466,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,286 +658,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B6" s="6">
         <v>0.35</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C6" s="6">
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B7" s="6">
         <v>0.37</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C7" s="6">
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B8" s="6">
         <v>0.46</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C8" s="6">
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B9" s="6">
         <v>0.51</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C9" s="6">
         <v>0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B10" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C10" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B11" s="6">
         <v>0.6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C11" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B12" s="6">
         <v>0.64</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C12" s="6">
         <v>0.64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B13" s="6">
         <v>0.66</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C13" s="6">
         <v>0.66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B14" s="6">
         <v>0.68</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C14" s="6">
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B15" s="7">
         <v>0.69</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C15" s="7">
         <v>0.69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B16" s="6">
         <v>0.7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C16" s="6">
         <v>0.79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B17" s="6">
         <v>0.72</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C17" s="6">
         <v>0.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B18" s="6">
         <v>0.74</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C18" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B19" s="6">
         <v>0.76</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C19" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B20" s="6">
         <v>0.76</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C20" s="6">
         <v>0.96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B21" s="6">
         <v>0.77</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B22" s="6">
         <v>0.77</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C22" s="6">
         <v>1.03</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B23" s="6">
         <v>0.77</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C23" s="6">
         <v>1.04</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B24" s="6">
         <v>0.76</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C24" s="6">
         <v>1.02</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B25" s="6">
         <v>0.77</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B26" s="6">
         <v>0.76</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B27" s="6">
         <v>0.67</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C27" s="6">
         <v>0.83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B28" s="9">
         <v>0.63</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C28" s="9">
         <v>0.74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A37:D38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
